--- a/app/formatos/unidad_excel.xlsx
+++ b/app/formatos/unidad_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\situ-web\app\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED94273-C517-43C1-9A71-C86E71A4FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C5B5E7-5382-4F86-BB8E-E0A58EC32990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Id de Estado</t>
   </si>
@@ -79,16 +79,7 @@
     <t>Mecanizacion</t>
   </si>
   <si>
-    <t>Bioinsumos</t>
-  </si>
-  <si>
-    <t>Zonas verdes</t>
-  </si>
-  <si>
-    <t>Panificacion</t>
-  </si>
-  <si>
-    <t>Lacteos</t>
+    <t>Unidad</t>
   </si>
 </sst>
 </file>
@@ -454,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,69 +495,9 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="E2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -580,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78856EFD-D402-4BDA-9F92-72FEFA9F74C1}">
   <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/formatos/unidad_excel.xlsx
+++ b/app/formatos/unidad_excel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\situ-web\app\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\situ-web\app\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C5B5E7-5382-4F86-BB8E-E0A58EC32990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id de Estado</t>
   </si>
@@ -40,9 +39,6 @@
     <t>Inactivo</t>
   </si>
   <si>
-    <t>suspendido</t>
-  </si>
-  <si>
     <t>Nombre de Unidad</t>
   </si>
   <si>
@@ -58,9 +54,6 @@
     <t>Fecha de Cierre</t>
   </si>
   <si>
-    <t>Areas del Centro</t>
-  </si>
-  <si>
     <t>Pecuaria</t>
   </si>
   <si>
@@ -76,20 +69,32 @@
     <t>Agricola</t>
   </si>
   <si>
-    <t>Mecanizacion</t>
-  </si>
-  <si>
-    <t>Unidad</t>
+    <t>Sena Empresa</t>
+  </si>
+  <si>
+    <t>Suspendido</t>
+  </si>
+  <si>
+    <t>Bloqueado</t>
+  </si>
+  <si>
+    <t>Areas de centro</t>
+  </si>
+  <si>
+    <t>Lote 1</t>
+  </si>
+  <si>
+    <t>Lote 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +110,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,8 +130,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -143,33 +160,341 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -180,6 +505,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:F1048576"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Nombre de Unidad" dataDxfId="9"/>
+    <tableColumn id="2" name="id de Area" dataDxfId="8"/>
+    <tableColumn id="3" name="Aprendices Requeridos" dataDxfId="7"/>
+    <tableColumn id="4" name="Fecha de Apertura" dataDxfId="6"/>
+    <tableColumn id="5" name="Fecha de Cierre" dataDxfId="5"/>
+    <tableColumn id="6" name="Id de Estado" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,194 +784,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F2" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048576" s="9"/>
+      <c r="B1048576" s="10"/>
+      <c r="C1048576" s="10"/>
+      <c r="D1048576" s="11"/>
+      <c r="E1048576" s="11"/>
+      <c r="F1048576" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Parametros!$H$3:$H$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78856EFD-D402-4BDA-9F92-72FEFA9F74C1}">
-  <dimension ref="B2:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="E3" s="17"/>
+      <c r="H3" s="3">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4"/>
+      <c r="E4" s="17"/>
+      <c r="H4" s="3">
+        <v>21</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="H5" s="3">
+        <v>22</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="4"/>
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="H6" s="3">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G7" s="4">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G8" s="4">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="E7" s="17"/>
+      <c r="H7" s="3">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="G6:H6"/>
+  <mergeCells count="17">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>

--- a/app/formatos/unidad_excel.xlsx
+++ b/app/formatos/unidad_excel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Id de Estado</t>
   </si>
@@ -81,10 +81,7 @@
     <t>Areas de centro</t>
   </si>
   <si>
-    <t>Lote 1</t>
-  </si>
-  <si>
-    <t>Lote 2</t>
+    <t>Ejemplo de Unidad</t>
   </si>
 </sst>
 </file>
@@ -508,8 +505,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:F1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:F1048575" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:F1048575"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Nombre de Unidad" dataDxfId="9"/>
     <tableColumn id="2" name="id de Area" dataDxfId="8"/>
@@ -785,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,33 +837,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1048576" s="9"/>
-      <c r="B1048576" s="10"/>
-      <c r="C1048576" s="10"/>
-      <c r="D1048576" s="11"/>
-      <c r="E1048576" s="11"/>
-      <c r="F1048576" s="12"/>
+    <row r="1048575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048575" s="9"/>
+      <c r="B1048575" s="10"/>
+      <c r="C1048575" s="10"/>
+      <c r="D1048575" s="11"/>
+      <c r="E1048575" s="11"/>
+      <c r="F1048575" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
